--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Project II\GitHub\Q\L_C\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgarciauribe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475"/>
+    <workbookView xWindow="-2020" yWindow="-23540" windowWidth="33400" windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -18,12 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">LoanStats!$A$1:$B$118</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -963,6 +965,87 @@
   </si>
   <si>
     <t>total_bc_limit</t>
+  </si>
+  <si>
+    <t>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revol_bal_joint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sum of revolving credit balance of the co-borrowers, net of duplicate balances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_fico_range_low </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FICO range (high) for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_fico_range_high </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FICO range (low) for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_earliest_cr_line </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Earliest credit line at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_inq_last_6mths </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credit inquiries in the last 6 months at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_mort_acc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of mortgage accounts at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_open_acc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of open trades at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_revol_util </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ratio of total current balance to high credit/credit limit for all revolving accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_open_il_6m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of currently active installment trades at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_num_rev_accts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of revolving accounts at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_chargeoff_within_12_mths </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of charge-offs within last 12 months at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_collections_12_mths_ex_med </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of collections within last 12 months excluding medical collections at time of application for the secondary applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec_app_mths_since_last_major_derog </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Months since most recent 90-day or worse rating at time of application for the secondary applicant</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1661,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1599,6 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1611,36 +1695,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1792,7 +1851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1827,7 +1886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2036,51 +2095,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="189.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="118.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="196.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2089,16 +2148,16 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>287</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2107,61 +2166,61 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>265</v>
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
@@ -2170,7 +2229,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -2179,25 +2238,25 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2206,7 +2265,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2215,16 +2274,16 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2233,7 +2292,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2301,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>166</v>
       </c>
@@ -2251,7 +2310,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2319,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2269,7 +2328,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2337,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2346,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2296,34 +2355,34 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2332,25 +2391,25 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>291</v>
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2418,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2427,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2377,7 +2436,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -2388,7 +2447,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2397,7 +2456,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2406,7 +2465,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2415,7 +2474,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2424,7 +2483,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2433,7 +2492,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -2442,7 +2501,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2451,16 +2510,16 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2472,11 +2531,11 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D47" s="4"/>
@@ -2484,11 +2543,11 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="4"/>
@@ -2496,34 +2555,34 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2532,16 +2591,16 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2550,52 +2609,52 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>275</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>304</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2604,122 +2663,122 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2727,55 +2786,55 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -2791,23 +2850,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
@@ -2815,7 +2874,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -2823,15 +2882,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -2839,7 +2898,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>225</v>
       </c>
@@ -2855,7 +2914,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -2879,15 +2938,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2895,7 +2954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
@@ -2903,31 +2962,31 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -2935,47 +2994,47 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -2983,7 +3042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -2991,7 +3050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -2999,7 +3058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -3007,7 +3066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3015,15 +3074,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3090,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>295</v>
       </c>
@@ -3039,43 +3098,142 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
         <v>247</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="13" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="13" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57">
-    <sortState ref="A2:B116">
-      <sortCondition ref="A1:A116"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B129"/>
   <sortState ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="64" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3083,442 +3241,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="107.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>241</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>265</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="14" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>260</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>279</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>289</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>291</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -3528,609 +3686,609 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>163</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>275</v>
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>148</v>
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>149</v>
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
         <v>144</v>
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="8" t="s">
         <v>267</v>
       </c>
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
         <v>271</v>
       </c>
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="9" t="s">
         <v>273</v>
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
         <v>269</v>
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
         <v>281</v>
       </c>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="9" t="s">
         <v>152</v>
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="9" t="s">
         <v>164</v>
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="9" t="s">
         <v>165</v>
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B109" s="13" t="s">
         <v>168</v>
       </c>
@@ -4145,12 +4303,7 @@
     <sortCondition ref="D53:D144"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -4159,111 +4312,106 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>